--- a/data/bundesliga_matches_2023_2025.xlsx
+++ b/data/bundesliga_matches_2023_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J630"/>
+  <dimension ref="A1:J639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25645,6 +25645,366 @@
         </is>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>540425</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>2025-09-12T18:30:00Z</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>3</v>
+      </c>
+      <c r="D631" t="n">
+        <v>3</v>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>Bayer 04 Leverkusen</t>
+        </is>
+      </c>
+      <c r="F631" t="n">
+        <v>19</v>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="H631" t="n">
+        <v>3</v>
+      </c>
+      <c r="I631" t="n">
+        <v>1</v>
+      </c>
+      <c r="J631" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>540426</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>2025-09-13T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>3</v>
+      </c>
+      <c r="D632" t="n">
+        <v>17</v>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="F632" t="n">
+        <v>10</v>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="H632" t="n">
+        <v>3</v>
+      </c>
+      <c r="I632" t="n">
+        <v>1</v>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>540427</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>2025-09-13T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>3</v>
+      </c>
+      <c r="D633" t="n">
+        <v>15</v>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="F633" t="n">
+        <v>721</v>
+      </c>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="H633" t="n">
+        <v>0</v>
+      </c>
+      <c r="I633" t="n">
+        <v>1</v>
+      </c>
+      <c r="J633" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>540429</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>2025-09-13T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>3</v>
+      </c>
+      <c r="D634" t="n">
+        <v>11</v>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="F634" t="n">
+        <v>1</v>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H634" t="n">
+        <v>3</v>
+      </c>
+      <c r="I634" t="n">
+        <v>3</v>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>540430</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>2025-09-13T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>3</v>
+      </c>
+      <c r="D635" t="n">
+        <v>28</v>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="F635" t="n">
+        <v>2</v>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>TSG 1899 Hoffenheim</t>
+        </is>
+      </c>
+      <c r="H635" t="n">
+        <v>2</v>
+      </c>
+      <c r="I635" t="n">
+        <v>4</v>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>540432</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>2025-09-13T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>3</v>
+      </c>
+      <c r="D636" t="n">
+        <v>44</v>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>1. FC Heidenheim 1846</t>
+        </is>
+      </c>
+      <c r="F636" t="n">
+        <v>4</v>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="H636" t="n">
+        <v>0</v>
+      </c>
+      <c r="I636" t="n">
+        <v>2</v>
+      </c>
+      <c r="J636" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>540424</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>2025-09-13T16:30:00Z</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>3</v>
+      </c>
+      <c r="D637" t="n">
+        <v>5</v>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>FC Bayern München</t>
+        </is>
+      </c>
+      <c r="F637" t="n">
+        <v>7</v>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H637" t="n">
+        <v>5</v>
+      </c>
+      <c r="I637" t="n">
+        <v>0</v>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>540431</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>2025-09-14T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>3</v>
+      </c>
+      <c r="D638" t="n">
+        <v>20</v>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>FC St. Pauli 1910</t>
+        </is>
+      </c>
+      <c r="F638" t="n">
+        <v>16</v>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="H638" t="n">
+        <v>2</v>
+      </c>
+      <c r="I638" t="n">
+        <v>1</v>
+      </c>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>540428</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>2025-09-14T15:30:00Z</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>3</v>
+      </c>
+      <c r="D639" t="n">
+        <v>18</v>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>Borussia Mönchengladbach</t>
+        </is>
+      </c>
+      <c r="F639" t="n">
+        <v>12</v>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>SV Werder Bremen</t>
+        </is>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="n">
+        <v>4</v>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/bundesliga_matches_2023_2025.xlsx
+++ b/data/bundesliga_matches_2023_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J639"/>
+  <dimension ref="A1:J648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26005,6 +26005,366 @@
         </is>
       </c>
     </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>540438</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>2025-09-19T18:30:00Z</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>4</v>
+      </c>
+      <c r="D640" t="n">
+        <v>10</v>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="F640" t="n">
+        <v>20</v>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>FC St. Pauli 1910</t>
+        </is>
+      </c>
+      <c r="H640" t="n">
+        <v>2</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0</v>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>540437</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>2025-09-20T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>4</v>
+      </c>
+      <c r="D641" t="n">
+        <v>12</v>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>SV Werder Bremen</t>
+        </is>
+      </c>
+      <c r="F641" t="n">
+        <v>17</v>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="n">
+        <v>3</v>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>540439</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>2025-09-20T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>4</v>
+      </c>
+      <c r="D642" t="n">
+        <v>16</v>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="F642" t="n">
+        <v>15</v>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="H642" t="n">
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>4</v>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>540440</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>2025-09-20T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>4</v>
+      </c>
+      <c r="D643" t="n">
+        <v>2</v>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>TSG 1899 Hoffenheim</t>
+        </is>
+      </c>
+      <c r="F643" t="n">
+        <v>5</v>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>FC Bayern München</t>
+        </is>
+      </c>
+      <c r="H643" t="n">
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>4</v>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>540441</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>2025-09-20T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>4</v>
+      </c>
+      <c r="D644" t="n">
+        <v>7</v>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F644" t="n">
+        <v>44</v>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>1. FC Heidenheim 1846</t>
+        </is>
+      </c>
+      <c r="H644" t="n">
+        <v>2</v>
+      </c>
+      <c r="I644" t="n">
+        <v>1</v>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>540436</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>2025-09-20T16:30:00Z</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>4</v>
+      </c>
+      <c r="D645" t="n">
+        <v>721</v>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="F645" t="n">
+        <v>1</v>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H645" t="n">
+        <v>3</v>
+      </c>
+      <c r="I645" t="n">
+        <v>1</v>
+      </c>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>540434</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>2025-09-21T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>4</v>
+      </c>
+      <c r="D646" t="n">
+        <v>19</v>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="F646" t="n">
+        <v>28</v>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="H646" t="n">
+        <v>3</v>
+      </c>
+      <c r="I646" t="n">
+        <v>4</v>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>540433</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>2025-09-21T15:30:00Z</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>4</v>
+      </c>
+      <c r="D647" t="n">
+        <v>3</v>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>Bayer 04 Leverkusen</t>
+        </is>
+      </c>
+      <c r="F647" t="n">
+        <v>18</v>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>Borussia Mönchengladbach</t>
+        </is>
+      </c>
+      <c r="H647" t="n">
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>1</v>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>540435</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>2025-09-21T17:30:00Z</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>4</v>
+      </c>
+      <c r="D648" t="n">
+        <v>4</v>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="F648" t="n">
+        <v>11</v>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="H648" t="n">
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0</v>
+      </c>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/bundesliga_matches_2023_2025.xlsx
+++ b/data/bundesliga_matches_2023_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J648"/>
+  <dimension ref="A1:J654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26365,6 +26365,246 @@
         </is>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>540442</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>2025-09-26T18:30:00Z</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>5</v>
+      </c>
+      <c r="D649" t="n">
+        <v>5</v>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>FC Bayern München</t>
+        </is>
+      </c>
+      <c r="F649" t="n">
+        <v>12</v>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>SV Werder Bremen</t>
+        </is>
+      </c>
+      <c r="H649" t="n">
+        <v>4</v>
+      </c>
+      <c r="I649" t="n">
+        <v>0</v>
+      </c>
+      <c r="J649" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>540444</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>2025-09-27T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>5</v>
+      </c>
+      <c r="D650" t="n">
+        <v>15</v>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="F650" t="n">
+        <v>4</v>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="n">
+        <v>2</v>
+      </c>
+      <c r="J650" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>540446</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>2025-09-27T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>5</v>
+      </c>
+      <c r="D651" t="n">
+        <v>11</v>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="F651" t="n">
+        <v>721</v>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="H651" t="n">
+        <v>0</v>
+      </c>
+      <c r="I651" t="n">
+        <v>1</v>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>540448</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>2025-09-27T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>5</v>
+      </c>
+      <c r="D652" t="n">
+        <v>20</v>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>FC St. Pauli 1910</t>
+        </is>
+      </c>
+      <c r="F652" t="n">
+        <v>3</v>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>Bayer 04 Leverkusen</t>
+        </is>
+      </c>
+      <c r="H652" t="n">
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>2</v>
+      </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>540449</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>2025-09-27T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>5</v>
+      </c>
+      <c r="D653" t="n">
+        <v>44</v>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>1. FC Heidenheim 1846</t>
+        </is>
+      </c>
+      <c r="F653" t="n">
+        <v>16</v>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="H653" t="n">
+        <v>2</v>
+      </c>
+      <c r="I653" t="n">
+        <v>1</v>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>540445</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>2025-09-27T16:30:00Z</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>5</v>
+      </c>
+      <c r="D654" t="n">
+        <v>18</v>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>Borussia Mönchengladbach</t>
+        </is>
+      </c>
+      <c r="F654" t="n">
+        <v>19</v>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="H654" t="n">
+        <v>4</v>
+      </c>
+      <c r="I654" t="n">
+        <v>6</v>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/bundesliga_matches_2023_2025.xlsx
+++ b/data/bundesliga_matches_2023_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J654"/>
+  <dimension ref="A1:J657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26605,6 +26605,126 @@
         </is>
       </c>
     </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>540443</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>2025-09-28T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>5</v>
+      </c>
+      <c r="D655" t="n">
+        <v>17</v>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="F655" t="n">
+        <v>2</v>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>TSG 1899 Hoffenheim</t>
+        </is>
+      </c>
+      <c r="H655" t="n">
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>1</v>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>540450</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>2025-09-28T15:30:00Z</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>5</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1</v>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F656" t="n">
+        <v>10</v>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="H656" t="n">
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>2</v>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>540447</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>2025-09-28T17:30:00Z</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>5</v>
+      </c>
+      <c r="D657" t="n">
+        <v>28</v>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="F657" t="n">
+        <v>7</v>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0</v>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/bundesliga_matches_2023_2025.xlsx
+++ b/data/bundesliga_matches_2023_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J657"/>
+  <dimension ref="A1:J666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26725,6 +26725,366 @@
         </is>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>540458</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>2025-10-03T18:30:00Z</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>6</v>
+      </c>
+      <c r="D658" t="n">
+        <v>2</v>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>TSG 1899 Hoffenheim</t>
+        </is>
+      </c>
+      <c r="F658" t="n">
+        <v>1</v>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" t="n">
+        <v>1</v>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>540451</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>2025-10-04T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>6</v>
+      </c>
+      <c r="D659" t="n">
+        <v>3</v>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>Bayer 04 Leverkusen</t>
+        </is>
+      </c>
+      <c r="F659" t="n">
+        <v>28</v>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="H659" t="n">
+        <v>2</v>
+      </c>
+      <c r="I659" t="n">
+        <v>0</v>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>540453</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>2025-10-04T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>6</v>
+      </c>
+      <c r="D660" t="n">
+        <v>4</v>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="F660" t="n">
+        <v>721</v>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="H660" t="n">
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>1</v>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>540454</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>2025-10-04T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>6</v>
+      </c>
+      <c r="D661" t="n">
+        <v>12</v>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>SV Werder Bremen</t>
+        </is>
+      </c>
+      <c r="F661" t="n">
+        <v>20</v>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>FC St. Pauli 1910</t>
+        </is>
+      </c>
+      <c r="H661" t="n">
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>0</v>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>540457</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>2025-10-04T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>6</v>
+      </c>
+      <c r="D662" t="n">
+        <v>16</v>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="F662" t="n">
+        <v>11</v>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="H662" t="n">
+        <v>3</v>
+      </c>
+      <c r="I662" t="n">
+        <v>1</v>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>540452</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>2025-10-04T16:30:00Z</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>6</v>
+      </c>
+      <c r="D663" t="n">
+        <v>19</v>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="F663" t="n">
+        <v>5</v>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>FC Bayern München</t>
+        </is>
+      </c>
+      <c r="H663" t="n">
+        <v>0</v>
+      </c>
+      <c r="I663" t="n">
+        <v>3</v>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>540455</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>2025-10-05T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>6</v>
+      </c>
+      <c r="D664" t="n">
+        <v>10</v>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="F664" t="n">
+        <v>44</v>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>1. FC Heidenheim 1846</t>
+        </is>
+      </c>
+      <c r="H664" t="n">
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>0</v>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>540459</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>2025-10-05T15:30:00Z</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>6</v>
+      </c>
+      <c r="D665" t="n">
+        <v>7</v>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F665" t="n">
+        <v>15</v>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="H665" t="n">
+        <v>4</v>
+      </c>
+      <c r="I665" t="n">
+        <v>0</v>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>540456</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>2025-10-05T17:30:00Z</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>6</v>
+      </c>
+      <c r="D666" t="n">
+        <v>18</v>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>Borussia Mönchengladbach</t>
+        </is>
+      </c>
+      <c r="F666" t="n">
+        <v>17</v>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="H666" t="n">
+        <v>0</v>
+      </c>
+      <c r="I666" t="n">
+        <v>0</v>
+      </c>
+      <c r="J666" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/bundesliga_matches_2023_2025.xlsx
+++ b/data/bundesliga_matches_2023_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J666"/>
+  <dimension ref="A1:J675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27085,6 +27085,366 @@
         </is>
       </c>
     </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>540465</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>2025-10-17T18:30:00Z</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>7</v>
+      </c>
+      <c r="D667" t="n">
+        <v>28</v>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="F667" t="n">
+        <v>18</v>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>Borussia Mönchengladbach</t>
+        </is>
+      </c>
+      <c r="H667" t="n">
+        <v>3</v>
+      </c>
+      <c r="I667" t="n">
+        <v>1</v>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>540462</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>2025-10-18T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>7</v>
+      </c>
+      <c r="D668" t="n">
+        <v>15</v>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="F668" t="n">
+        <v>3</v>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>Bayer 04 Leverkusen</t>
+        </is>
+      </c>
+      <c r="H668" t="n">
+        <v>3</v>
+      </c>
+      <c r="I668" t="n">
+        <v>4</v>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>540463</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>2025-10-18T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>7</v>
+      </c>
+      <c r="D669" t="n">
+        <v>721</v>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="F669" t="n">
+        <v>7</v>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H669" t="n">
+        <v>2</v>
+      </c>
+      <c r="I669" t="n">
+        <v>1</v>
+      </c>
+      <c r="J669" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>540464</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>2025-10-18T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>7</v>
+      </c>
+      <c r="D670" t="n">
+        <v>11</v>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="F670" t="n">
+        <v>10</v>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="H670" t="n">
+        <v>0</v>
+      </c>
+      <c r="I670" t="n">
+        <v>3</v>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>540467</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>2025-10-18T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>7</v>
+      </c>
+      <c r="D671" t="n">
+        <v>44</v>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>1. FC Heidenheim 1846</t>
+        </is>
+      </c>
+      <c r="F671" t="n">
+        <v>12</v>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>SV Werder Bremen</t>
+        </is>
+      </c>
+      <c r="H671" t="n">
+        <v>2</v>
+      </c>
+      <c r="I671" t="n">
+        <v>2</v>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>540468</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>2025-10-18T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>7</v>
+      </c>
+      <c r="D672" t="n">
+        <v>1</v>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F672" t="n">
+        <v>16</v>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="H672" t="n">
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>1</v>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>540460</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>2025-10-18T16:30:00Z</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>7</v>
+      </c>
+      <c r="D673" t="n">
+        <v>5</v>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>FC Bayern München</t>
+        </is>
+      </c>
+      <c r="F673" t="n">
+        <v>4</v>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="H673" t="n">
+        <v>2</v>
+      </c>
+      <c r="I673" t="n">
+        <v>1</v>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>540461</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>2025-10-19T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>7</v>
+      </c>
+      <c r="D674" t="n">
+        <v>17</v>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="F674" t="n">
+        <v>19</v>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="H674" t="n">
+        <v>2</v>
+      </c>
+      <c r="I674" t="n">
+        <v>2</v>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>540466</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>2025-10-19T15:30:00Z</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>7</v>
+      </c>
+      <c r="D675" t="n">
+        <v>20</v>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>FC St. Pauli 1910</t>
+        </is>
+      </c>
+      <c r="F675" t="n">
+        <v>2</v>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>TSG 1899 Hoffenheim</t>
+        </is>
+      </c>
+      <c r="H675" t="n">
+        <v>0</v>
+      </c>
+      <c r="I675" t="n">
+        <v>3</v>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/bundesliga_matches_2023_2025.xlsx
+++ b/data/bundesliga_matches_2023_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J675"/>
+  <dimension ref="A1:J684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27445,6 +27445,366 @@
         </is>
       </c>
     </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>540472</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>2025-10-24T18:30:00Z</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>8</v>
+      </c>
+      <c r="D676" t="n">
+        <v>12</v>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>SV Werder Bremen</t>
+        </is>
+      </c>
+      <c r="F676" t="n">
+        <v>28</v>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="H676" t="n">
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>0</v>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>540470</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>8</v>
+      </c>
+      <c r="D677" t="n">
+        <v>19</v>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="F677" t="n">
+        <v>20</v>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>FC St. Pauli 1910</t>
+        </is>
+      </c>
+      <c r="H677" t="n">
+        <v>2</v>
+      </c>
+      <c r="I677" t="n">
+        <v>0</v>
+      </c>
+      <c r="J677" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>540475</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>8</v>
+      </c>
+      <c r="D678" t="n">
+        <v>16</v>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="F678" t="n">
+        <v>721</v>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="H678" t="n">
+        <v>0</v>
+      </c>
+      <c r="I678" t="n">
+        <v>6</v>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>540476</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>8</v>
+      </c>
+      <c r="D679" t="n">
+        <v>2</v>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>TSG 1899 Hoffenheim</t>
+        </is>
+      </c>
+      <c r="F679" t="n">
+        <v>44</v>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>1. FC Heidenheim 1846</t>
+        </is>
+      </c>
+      <c r="H679" t="n">
+        <v>3</v>
+      </c>
+      <c r="I679" t="n">
+        <v>1</v>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>540477</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>8</v>
+      </c>
+      <c r="D680" t="n">
+        <v>7</v>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F680" t="n">
+        <v>11</v>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="H680" t="n">
+        <v>0</v>
+      </c>
+      <c r="I680" t="n">
+        <v>1</v>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>540474</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>2025-10-25T13:45:00Z</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>8</v>
+      </c>
+      <c r="D681" t="n">
+        <v>18</v>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>Borussia Mönchengladbach</t>
+        </is>
+      </c>
+      <c r="F681" t="n">
+        <v>5</v>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>FC Bayern München</t>
+        </is>
+      </c>
+      <c r="H681" t="n">
+        <v>0</v>
+      </c>
+      <c r="I681" t="n">
+        <v>3</v>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>540471</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>2025-10-25T16:30:00Z</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>8</v>
+      </c>
+      <c r="D682" t="n">
+        <v>4</v>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="F682" t="n">
+        <v>1</v>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H682" t="n">
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>0</v>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>540469</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>2025-10-26T14:30:00Z</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>8</v>
+      </c>
+      <c r="D683" t="n">
+        <v>3</v>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>Bayer 04 Leverkusen</t>
+        </is>
+      </c>
+      <c r="F683" t="n">
+        <v>17</v>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="H683" t="n">
+        <v>2</v>
+      </c>
+      <c r="I683" t="n">
+        <v>0</v>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>540473</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>2025-10-26T16:30:00Z</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>8</v>
+      </c>
+      <c r="D684" t="n">
+        <v>10</v>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="F684" t="n">
+        <v>15</v>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="H684" t="n">
+        <v>2</v>
+      </c>
+      <c r="I684" t="n">
+        <v>1</v>
+      </c>
+      <c r="J684" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/bundesliga_matches_2023_2025.xlsx
+++ b/data/bundesliga_matches_2023_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J684"/>
+  <dimension ref="A1:J702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27805,6 +27805,726 @@
         </is>
       </c>
     </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>540482</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>2025-10-31T19:30:00Z</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>9</v>
+      </c>
+      <c r="D685" t="n">
+        <v>16</v>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="F685" t="n">
+        <v>4</v>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="H685" t="n">
+        <v>0</v>
+      </c>
+      <c r="I685" t="n">
+        <v>1</v>
+      </c>
+      <c r="J685" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>540479</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>2025-11-01T14:30:00Z</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>9</v>
+      </c>
+      <c r="D686" t="n">
+        <v>15</v>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="F686" t="n">
+        <v>12</v>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>SV Werder Bremen</t>
+        </is>
+      </c>
+      <c r="H686" t="n">
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>1</v>
+      </c>
+      <c r="J686" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>540480</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>2025-11-01T14:30:00Z</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>9</v>
+      </c>
+      <c r="D687" t="n">
+        <v>721</v>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="F687" t="n">
+        <v>10</v>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="H687" t="n">
+        <v>3</v>
+      </c>
+      <c r="I687" t="n">
+        <v>1</v>
+      </c>
+      <c r="J687" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>540483</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>2025-11-01T14:30:00Z</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>9</v>
+      </c>
+      <c r="D688" t="n">
+        <v>28</v>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="F688" t="n">
+        <v>17</v>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="H688" t="n">
+        <v>0</v>
+      </c>
+      <c r="I688" t="n">
+        <v>0</v>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>540484</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>2025-11-01T14:30:00Z</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>9</v>
+      </c>
+      <c r="D689" t="n">
+        <v>20</v>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>FC St. Pauli 1910</t>
+        </is>
+      </c>
+      <c r="F689" t="n">
+        <v>18</v>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>Borussia Mönchengladbach</t>
+        </is>
+      </c>
+      <c r="H689" t="n">
+        <v>0</v>
+      </c>
+      <c r="I689" t="n">
+        <v>4</v>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>540485</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>2025-11-01T14:30:00Z</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>9</v>
+      </c>
+      <c r="D690" t="n">
+        <v>44</v>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>1. FC Heidenheim 1846</t>
+        </is>
+      </c>
+      <c r="F690" t="n">
+        <v>19</v>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="H690" t="n">
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>1</v>
+      </c>
+      <c r="J690" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>540478</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>2025-11-01T17:30:00Z</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>9</v>
+      </c>
+      <c r="D691" t="n">
+        <v>5</v>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>FC Bayern München</t>
+        </is>
+      </c>
+      <c r="F691" t="n">
+        <v>3</v>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>Bayer 04 Leverkusen</t>
+        </is>
+      </c>
+      <c r="H691" t="n">
+        <v>3</v>
+      </c>
+      <c r="I691" t="n">
+        <v>0</v>
+      </c>
+      <c r="J691" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>540486</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>2025-11-02T14:30:00Z</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>9</v>
+      </c>
+      <c r="D692" t="n">
+        <v>1</v>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="F692" t="n">
+        <v>7</v>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="H692" t="n">
+        <v>4</v>
+      </c>
+      <c r="I692" t="n">
+        <v>1</v>
+      </c>
+      <c r="J692" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>540481</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>2025-11-02T16:30:00Z</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>9</v>
+      </c>
+      <c r="D693" t="n">
+        <v>11</v>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="F693" t="n">
+        <v>2</v>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>TSG 1899 Hoffenheim</t>
+        </is>
+      </c>
+      <c r="H693" t="n">
+        <v>2</v>
+      </c>
+      <c r="I693" t="n">
+        <v>3</v>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>AwayWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>540490</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>2025-11-07T19:30:00Z</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>10</v>
+      </c>
+      <c r="D694" t="n">
+        <v>12</v>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>SV Werder Bremen</t>
+        </is>
+      </c>
+      <c r="F694" t="n">
+        <v>11</v>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>VfL Wolfsburg</t>
+        </is>
+      </c>
+      <c r="H694" t="n">
+        <v>2</v>
+      </c>
+      <c r="I694" t="n">
+        <v>1</v>
+      </c>
+      <c r="J694" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>540487</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>2025-11-08T14:30:00Z</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>10</v>
+      </c>
+      <c r="D695" t="n">
+        <v>3</v>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>Bayer 04 Leverkusen</t>
+        </is>
+      </c>
+      <c r="F695" t="n">
+        <v>44</v>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>1. FC Heidenheim 1846</t>
+        </is>
+      </c>
+      <c r="H695" t="n">
+        <v>6</v>
+      </c>
+      <c r="I695" t="n">
+        <v>0</v>
+      </c>
+      <c r="J695" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>540493</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>2025-11-08T14:30:00Z</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>10</v>
+      </c>
+      <c r="D696" t="n">
+        <v>28</v>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>1. FC Union Berlin</t>
+        </is>
+      </c>
+      <c r="F696" t="n">
+        <v>5</v>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>FC Bayern München</t>
+        </is>
+      </c>
+      <c r="H696" t="n">
+        <v>2</v>
+      </c>
+      <c r="I696" t="n">
+        <v>2</v>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>540494</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>2025-11-08T14:30:00Z</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>10</v>
+      </c>
+      <c r="D697" t="n">
+        <v>2</v>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>TSG 1899 Hoffenheim</t>
+        </is>
+      </c>
+      <c r="F697" t="n">
+        <v>721</v>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="H697" t="n">
+        <v>3</v>
+      </c>
+      <c r="I697" t="n">
+        <v>1</v>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>540495</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>2025-11-08T14:30:00Z</t>
+        </is>
+      </c>
+      <c r="C698" t="n">
+        <v>10</v>
+      </c>
+      <c r="D698" t="n">
+        <v>7</v>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>Hamburger SV</t>
+        </is>
+      </c>
+      <c r="F698" t="n">
+        <v>4</v>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
+      </c>
+      <c r="H698" t="n">
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>1</v>
+      </c>
+      <c r="J698" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>540492</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>2025-11-08T17:30:00Z</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>10</v>
+      </c>
+      <c r="D699" t="n">
+        <v>18</v>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>Borussia Mönchengladbach</t>
+        </is>
+      </c>
+      <c r="F699" t="n">
+        <v>1</v>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>1. FC Köln</t>
+        </is>
+      </c>
+      <c r="H699" t="n">
+        <v>3</v>
+      </c>
+      <c r="I699" t="n">
+        <v>1</v>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>540489</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>2025-11-09T14:30:00Z</t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>10</v>
+      </c>
+      <c r="D700" t="n">
+        <v>17</v>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>SC Freiburg</t>
+        </is>
+      </c>
+      <c r="F700" t="n">
+        <v>20</v>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>FC St. Pauli 1910</t>
+        </is>
+      </c>
+      <c r="H700" t="n">
+        <v>2</v>
+      </c>
+      <c r="I700" t="n">
+        <v>1</v>
+      </c>
+      <c r="J700" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>540491</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>2025-11-09T16:30:00Z</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>10</v>
+      </c>
+      <c r="D701" t="n">
+        <v>10</v>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="F701" t="n">
+        <v>16</v>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>FC Augsburg</t>
+        </is>
+      </c>
+      <c r="H701" t="n">
+        <v>3</v>
+      </c>
+      <c r="I701" t="n">
+        <v>2</v>
+      </c>
+      <c r="J701" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>540488</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>2025-11-09T18:30:00Z</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>10</v>
+      </c>
+      <c r="D702" t="n">
+        <v>19</v>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="F702" t="n">
+        <v>15</v>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>1. FSV Mainz 05</t>
+        </is>
+      </c>
+      <c r="H702" t="n">
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>0</v>
+      </c>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
